--- a/medicine/Psychotrope/Privatbrauerei_Bischoff/Privatbrauerei_Bischoff.xlsx
+++ b/medicine/Psychotrope/Privatbrauerei_Bischoff/Privatbrauerei_Bischoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privatbrauerei Bischoff GmbH + Co. KG est une brasserie à Winnweiler.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Bischoff (1843-1887), le fondateur de la brasserie, sert sa première bière le 7 décembre 1866 dans sa grange convertie à Winnweiler. Cette date est aujourd'hui considérée comme la date de fondation de l'entreprise. En 1884, les installations sont déplacées à l'emplacement actuel, qui porte aujourd'hui le nom An den Hopfengärten.
 La société continue à être familiale. Les PDG de la cinquième génération sont en 2001 Sven Bischoff et Erik Bischoff. Après le départ d'Erik Bischoff, Sven Bischoff dirige la brasserie depuis janvier 2009.
 Début août 2013, Karlsberg annonce reprendre la distribution des bières Bischoff à partir de 2014. En retour, Bischoff développe et produit des spécialités et des assortiments de produits pour le groupe Karlsberg.
 En décembre 2020, la brasserie a demandé l'ouverture d'une procédure d'insolvabilité en gestion propre. En juillet 2021, on a appris que l'associé avait l'intention de vendre le site de la brasserie, y compris les bâtiments et les machines, au plus offrant et de le relouer ensuite.
-La procédure d'insolvabilité en gestion autonome a échoué le 15 août 2022, l'activité de la brasserie est réduite de manière contrôlée. Auparavant, un investisseur potentiel s'était retiré à court terme. Lors d'une assemblée des créanciers le 15 août, la procédure d'insolvabilité en autogestion a donc été annulée et un administrateur judiciaire a été nommé à sa place. Le 26 octobre 2022, la brasserie a annoncé la fermeture définitive de l'entreprise[1].
+La procédure d'insolvabilité en gestion autonome a échoué le 15 août 2022, l'activité de la brasserie est réduite de manière contrôlée. Auparavant, un investisseur potentiel s'était retiré à court terme. Lors d'une assemblée des créanciers le 15 août, la procédure d'insolvabilité en autogestion a donc été annulée et un administrateur judiciaire a été nommé à sa place. Le 26 octobre 2022, la brasserie a annoncé la fermeture définitive de l'entreprise.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pils et Premium Pilsener
 Vier Weizenbiere sous l'étiquette Falkensteiner : Ur-Schwarze, Ur-Weisse, Weizen (Kristallweizen) et Alkoholfreies Weizen
